--- a/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
@@ -14,33 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>★臺南市東區德高段0488-0023 地號</t>
-  </si>
-  <si>
-    <t>★臺南市東區德高段0488-0090 地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市東區德高段04880023地號</t>
+  </si>
+  <si>
+    <t>臺南市東區德高段04880090地號</t>
   </si>
   <si>
     <t>全部</t>
@@ -49,13 +70,28 @@
     <t>林南生</t>
   </si>
   <si>
-    <t>99年12月 13日</t>
-  </si>
-  <si>
-    <t>99年12月 13曰</t>
+    <t>99年12月13日</t>
+  </si>
+  <si>
+    <t>99年12月13曰</t>
   </si>
   <si>
     <t>拍賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2010-12-24</t>
+  </si>
+  <si>
+    <t>陳淑慧</t>
+  </si>
+  <si>
+    <t>tmpdd71</t>
   </si>
 </sst>
 </file>
@@ -414,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,57 +478,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>2166000</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>19000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -58,7 +58,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺南市東區德高段04880023地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺南市東區德高段04880090地號</t>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>林南生</t>
-  </si>
-  <si>
-    <t>99年12月13日</t>
   </si>
   <si>
     <t>99年12月13曰</t>
@@ -450,13 +450,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,31 +499,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>2166000</v>
+        <v>19000</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -544,54 +550,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P2" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="Q2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
+++ b/legislator/property/output/normal/陳淑慧_2010-12-24_財產申報表_tmpdd71.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +64,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市東區德高段04880023地號</t>
+  </si>
+  <si>
     <t>臺南市東區德高段04880090地號</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>林南生</t>
+  </si>
+  <si>
+    <t>99年12月13日</t>
   </si>
   <si>
     <t>99年12月13曰</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,54 +514,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
-        <v>19000</v>
+        <v>2166000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1720</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>19000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1720</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>1</v>
       </c>
     </row>
